--- a/Filter_Usecase/Results_no_indels_new_t0_old_decision_tree.xlsx
+++ b/Filter_Usecase/Results_no_indels_new_t0_old_decision_tree.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\volume1\ido\BN-SCRIPTS\Filter_Usecase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C1E1FCDF-52BC-4AD6-848E-8001D041D67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3842BE4B-BDC2-4491-BB00-66FDD05CA7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3855" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-2400" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$I$47</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -85,7 +98,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,21 +731,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1107,16 +1120,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="G17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
@@ -1157,7 +1170,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
@@ -1169,7 +1182,7 @@
       <c r="D2" s="5">
         <v>44627</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>26</v>
       </c>
       <c r="F2" s="4">
@@ -1186,7 +1199,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1">
         <v>45</v>
       </c>
@@ -1196,7 +1209,7 @@
       <c r="D3" s="2">
         <v>44672</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>27.6</v>
       </c>
       <c r="F3" s="1">
@@ -1213,7 +1226,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1">
         <v>165</v>
       </c>
@@ -1223,7 +1236,7 @@
       <c r="D4" s="2">
         <v>44792</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>31.5</v>
       </c>
       <c r="F4" s="1">
@@ -1240,7 +1253,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1">
         <v>189</v>
       </c>
@@ -1250,7 +1263,7 @@
       <c r="D5" s="2">
         <v>44816</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>32.67</v>
       </c>
       <c r="F5" s="1">
@@ -1267,7 +1280,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8">
         <v>241</v>
       </c>
@@ -1277,7 +1290,7 @@
       <c r="D6" s="9">
         <v>44868</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>27.4</v>
       </c>
       <c r="F6" s="8">
@@ -1294,7 +1307,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="4">
@@ -1306,7 +1319,7 @@
       <c r="D7" s="5">
         <v>44727</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>23.37</v>
       </c>
       <c r="F7" s="4">
@@ -1323,7 +1336,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8">
         <v>14</v>
       </c>
@@ -1333,7 +1346,7 @@
       <c r="D8" s="9">
         <v>44741</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>30.83</v>
       </c>
       <c r="F8" s="8">
@@ -1350,7 +1363,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -1362,7 +1375,7 @@
       <c r="D9" s="5">
         <v>44662</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="13">
         <v>30</v>
       </c>
       <c r="F9" s="4">
@@ -1379,7 +1392,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -1389,7 +1402,7 @@
       <c r="D10" s="2">
         <v>44667</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>26.5</v>
       </c>
       <c r="F10" s="1">
@@ -1406,7 +1419,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1">
         <v>30</v>
       </c>
@@ -1416,7 +1429,7 @@
       <c r="D11" s="2">
         <v>44692</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>28.9</v>
       </c>
       <c r="F11" s="1">
@@ -1433,7 +1446,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8">
         <v>76</v>
       </c>
@@ -1443,7 +1456,7 @@
       <c r="D12" s="9">
         <v>44738</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>27.5</v>
       </c>
       <c r="F12" s="8">
@@ -1460,7 +1473,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4">
@@ -1472,7 +1485,7 @@
       <c r="D13" s="5">
         <v>44665</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <v>18.62</v>
       </c>
       <c r="F13" s="4">
@@ -1489,7 +1502,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="14"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8">
         <v>27</v>
       </c>
@@ -1499,7 +1512,7 @@
       <c r="D14" s="9">
         <v>44692</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>26.73</v>
       </c>
       <c r="F14" s="8">
@@ -1516,7 +1529,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -1528,7 +1541,7 @@
       <c r="D15" s="5">
         <v>44652</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="13">
         <v>26.5</v>
       </c>
       <c r="F15" s="4">
@@ -1545,7 +1558,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1555,7 +1568,7 @@
       <c r="D16" s="2">
         <v>44665</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>24.35</v>
       </c>
       <c r="F16" s="1">
@@ -1572,7 +1585,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1">
         <v>16</v>
       </c>
@@ -1582,7 +1595,7 @@
       <c r="D17" s="2">
         <v>44668</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>27.5</v>
       </c>
       <c r="F17" s="1">
@@ -1599,7 +1612,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1">
         <v>19</v>
       </c>
@@ -1609,7 +1622,7 @@
       <c r="D18" s="2">
         <v>44671</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>28.1</v>
       </c>
       <c r="F18" s="1">
@@ -1626,7 +1639,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="1">
         <v>23</v>
       </c>
@@ -1636,7 +1649,7 @@
       <c r="D19" s="2">
         <v>44675</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>29.37</v>
       </c>
       <c r="F19" s="1">
@@ -1653,7 +1666,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="1">
         <v>26</v>
       </c>
@@ -1663,7 +1676,7 @@
       <c r="D20" s="2">
         <v>44678</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>19</v>
       </c>
       <c r="F20" s="1">
@@ -1680,7 +1693,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="1">
         <v>31</v>
       </c>
@@ -1690,7 +1703,7 @@
       <c r="D21" s="2">
         <v>44683</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>22</v>
       </c>
       <c r="F21" s="1">
@@ -1707,7 +1720,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8">
         <v>37</v>
       </c>
@@ -1717,7 +1730,7 @@
       <c r="D22" s="9">
         <v>44689</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <v>34</v>
       </c>
       <c r="F22" s="8">
@@ -1734,7 +1747,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="4">
@@ -1746,7 +1759,7 @@
       <c r="D23" s="5">
         <v>44904</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="13">
         <v>23</v>
       </c>
       <c r="F23" s="4">
@@ -1763,7 +1776,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="8">
         <v>26</v>
       </c>
@@ -1773,7 +1786,7 @@
       <c r="D24" s="9">
         <v>44930</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>18.5</v>
       </c>
       <c r="F24" s="8">
@@ -1790,7 +1803,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="4">
@@ -1802,7 +1815,7 @@
       <c r="D25" s="5">
         <v>44228</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="13">
         <v>14.07</v>
       </c>
       <c r="F25" s="4">
@@ -1819,7 +1832,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="8">
         <v>16</v>
       </c>
@@ -1829,7 +1842,7 @@
       <c r="D26" s="9">
         <v>44244</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>27.43</v>
       </c>
       <c r="F26" s="8">
@@ -1846,7 +1859,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="4">
@@ -1858,7 +1871,7 @@
       <c r="D27" s="5">
         <v>44223</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="13">
         <v>21.47</v>
       </c>
       <c r="F27" s="4">
@@ -1875,7 +1888,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1">
         <v>10</v>
       </c>
@@ -1885,7 +1898,7 @@
       <c r="D28" s="2">
         <v>44233</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>28.43</v>
       </c>
       <c r="F28" s="1">
@@ -1902,7 +1915,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1">
         <v>13</v>
       </c>
@@ -1912,7 +1925,7 @@
       <c r="D29" s="2">
         <v>44236</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>31.3</v>
       </c>
       <c r="F29" s="1">
@@ -1929,7 +1942,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1">
         <v>18</v>
       </c>
@@ -1939,7 +1952,7 @@
       <c r="D30" s="2">
         <v>44241</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>30.27</v>
       </c>
       <c r="F30" s="1">
@@ -1956,7 +1969,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="1">
         <v>25</v>
       </c>
@@ -1966,7 +1979,7 @@
       <c r="D31" s="2">
         <v>44248</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <v>27.53</v>
       </c>
       <c r="F31" s="1">
@@ -1983,7 +1996,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -1993,7 +2006,7 @@
       <c r="D32" s="2">
         <v>44251</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <v>29.07</v>
       </c>
       <c r="F32" s="1">
@@ -2010,7 +2023,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="8">
         <v>35</v>
       </c>
@@ -2020,7 +2033,7 @@
       <c r="D33" s="9">
         <v>44258</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="15">
         <v>30.5</v>
       </c>
       <c r="F33" s="8">
@@ -2037,7 +2050,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="4">
@@ -2049,7 +2062,7 @@
       <c r="D34" s="5">
         <v>44475</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>22.5</v>
       </c>
       <c r="F34" s="4">
@@ -2066,7 +2079,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="1">
         <v>12</v>
       </c>
@@ -2076,7 +2089,7 @@
       <c r="D35" s="2">
         <v>44487</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>18.95</v>
       </c>
       <c r="F35" s="1">
@@ -2093,7 +2106,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1">
         <v>20</v>
       </c>
@@ -2103,7 +2116,7 @@
       <c r="D36" s="2">
         <v>44495</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="14">
         <v>32.67</v>
       </c>
       <c r="F36" s="1">
@@ -2120,7 +2133,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="1">
         <v>27</v>
       </c>
@@ -2130,7 +2143,7 @@
       <c r="D37" s="2">
         <v>44502</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>29</v>
       </c>
       <c r="F37" s="1">
@@ -2147,7 +2160,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1">
         <v>30</v>
       </c>
@@ -2157,7 +2170,7 @@
       <c r="D38" s="2">
         <v>44505</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="14">
         <v>18</v>
       </c>
       <c r="F38" s="1">
@@ -2174,7 +2187,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1">
         <v>40</v>
       </c>
@@ -2184,7 +2197,7 @@
       <c r="D39" s="2">
         <v>44515</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <v>28.9</v>
       </c>
       <c r="F39" s="1">
@@ -2201,7 +2214,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="1">
         <v>44</v>
       </c>
@@ -2211,7 +2224,7 @@
       <c r="D40" s="2">
         <v>44519</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>30</v>
       </c>
       <c r="F40" s="1">
@@ -2228,7 +2241,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="1">
         <v>68</v>
       </c>
@@ -2238,7 +2251,7 @@
       <c r="D41" s="2">
         <v>44543</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <v>25</v>
       </c>
       <c r="F41" s="1">
@@ -2255,7 +2268,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="14"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="8">
         <v>75</v>
       </c>
@@ -2265,7 +2278,7 @@
       <c r="D42" s="9">
         <v>44550</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="15">
         <v>28</v>
       </c>
       <c r="F42" s="8">
@@ -2282,7 +2295,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="4">
@@ -2294,7 +2307,7 @@
       <c r="D43" s="5">
         <v>44181</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="13">
         <v>17</v>
       </c>
       <c r="F43" s="4">
@@ -2311,7 +2324,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="1">
         <v>22</v>
       </c>
@@ -2321,7 +2334,7 @@
       <c r="D44" s="2">
         <v>44203</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <v>24.1</v>
       </c>
       <c r="F44" s="1">
@@ -2338,7 +2351,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="13"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="1">
         <v>30</v>
       </c>
@@ -2348,7 +2361,7 @@
       <c r="D45" s="2">
         <v>44211</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <v>25.33</v>
       </c>
       <c r="F45" s="1">
@@ -2365,7 +2378,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="13"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="1">
         <v>35</v>
       </c>
@@ -2375,7 +2388,7 @@
       <c r="D46" s="2">
         <v>44216</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="14">
         <v>25.23</v>
       </c>
       <c r="F46" s="1">
@@ -2392,7 +2405,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="8">
         <v>37</v>
       </c>
@@ -2402,7 +2415,7 @@
       <c r="D47" s="9">
         <v>44218</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="15">
         <v>27</v>
       </c>
       <c r="F47" s="8">
@@ -2419,7 +2432,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I47"/>
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="10">
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A12"/>
